--- a/listening/机经错题.xlsx
+++ b/listening/机经错题.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4ABC5-1B71-4AA4-9892-CDCBE18C4B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CAD682-65FC-4DD8-BCBA-6AB55B33BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7296" yWindow="2100" windowWidth="11124" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="391">
   <si>
     <t>V61131</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,11 +1050,444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 bed rooms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
+    <t>V02116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road runner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V51116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minibuses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复数没听出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级的，不会写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V04133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get a certificatte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtain a certificate（没听出来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围裙，不认识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck pain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听成neckpain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch manager</t>
+  </si>
+  <si>
+    <t>tellers</t>
+  </si>
+  <si>
+    <t>V61123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit history=record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V75410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霉菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a mold to coagulate = coagulated in a mold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machinery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dried</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make balls = produce balls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没听出来</t>
+  </si>
+  <si>
+    <t>elastic</t>
+  </si>
+  <si>
+    <t>有弹性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> in Germany invented = invented in Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V74405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> leisure time </t>
+  </si>
+  <si>
+    <t> spends hours per day</t>
+  </si>
+  <si>
+    <t> a negative impact</t>
+  </si>
+  <si>
+    <t>negative consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没听出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelligence development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V73403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created=made</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields where they cultivated various crops = crop fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plates made of wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood plates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevailing winds</t>
+  </si>
+  <si>
+    <t>printing press</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">America was a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>continent</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photographic technology</t>
+  </si>
+  <si>
+    <t>V67433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>predation=predator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> guard </t>
+  </si>
+  <si>
+    <t> locator</t>
+  </si>
+  <si>
+    <t>没写对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V69445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploration </t>
+  </si>
+  <si>
+    <t> reducing pains = alleviate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toothache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> domestic smells</t>
+  </si>
+  <si>
+    <t>tax they collected</t>
+  </si>
+  <si>
+    <t> the collection of tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V51110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V11180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parmanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V03109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bring your soap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>named our rooms</t>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>拼写错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> safe.</t>
+  </si>
+  <si>
+    <t>保险箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whales</t>
+  </si>
+  <si>
+    <t>听成wheels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V29202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听成130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skyscrapers</t>
+  </si>
+  <si>
+    <t>mineral deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest area by highway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highway rest area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleanest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V18101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coral reefs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚礁，不认识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheque</t>
+  </si>
+  <si>
+    <t>支票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听成1 October</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V04185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult learners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写成beginners了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V04116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一百没听见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take walks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walks没听清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V04130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1066,647 +1499,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>freezer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1st April</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>walking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuesday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coastal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gardens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>young children</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>café</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changing room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timetable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>learner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crowded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transportation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sandy's college</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wheelchair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>October</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare fish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>two-nights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kitchen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>helicopter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 months</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ocean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Septmber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diving equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>international student card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>museum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accommodations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entertainment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>palace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waitress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaflet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theoretical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>milk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life insurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house insurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investment schemes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mirror</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>market street</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>south park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vit613ul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cleaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drama</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fluent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minibus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wednesday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>august</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sport center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long road runner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thursday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>north park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>july</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tennis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insurance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>police</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>berlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>November</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekly return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no nuts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leg room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank transfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credit card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first Tuesday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>window dressing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name badge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exercises</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dangerous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>family</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balcony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>free repair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reusable bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ladder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>concentration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>january</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>laundry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receptionist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>computer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saturday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diving maks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beach soccer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hostel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>film</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree climbing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swimming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>towel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lounge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spanish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>furniture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reliable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>helengreenfield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>johngreenworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dinner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modern play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hospitals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waiter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bright</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eye drops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>december</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot chocolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advanced</t>
+    <t>没识别出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V16442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写成复数了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participantion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听成前面的词了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案倒置了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听成prices了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V19449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The smell of orange </t>
+  </si>
+  <si>
+    <t>the scent orange in a nightclub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear in another person</t>
+  </si>
+  <si>
+    <t>someone's fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot pinpoint the source </t>
+  </si>
+  <si>
+    <t>not detect the source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急躁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irritable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,8 +1689,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,8 +1715,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1836,11 +1730,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1858,6 +1767,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2138,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2646,6 +2560,9 @@
       <c r="B27" t="s">
         <v>43</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="I27" s="9" t="s">
         <v>209</v>
       </c>
@@ -2657,6 +2574,12 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
+      <c r="E28">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>341</v>
+      </c>
       <c r="I28" t="s">
         <v>210</v>
       </c>
@@ -2664,9 +2587,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29" t="s">
+        <v>295</v>
       </c>
       <c r="I29" t="s">
         <v>212</v>
@@ -2682,6 +2611,12 @@
       <c r="B30" t="s">
         <v>48</v>
       </c>
+      <c r="E30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" t="s">
+        <v>344</v>
+      </c>
       <c r="I30" s="2" t="s">
         <v>214</v>
       </c>
@@ -2696,6 +2631,12 @@
       <c r="B31" t="s">
         <v>9</v>
       </c>
+      <c r="E31" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" t="s">
+        <v>346</v>
+      </c>
       <c r="I31" t="s">
         <v>216</v>
       </c>
@@ -2710,6 +2651,12 @@
       <c r="B32" t="s">
         <v>51</v>
       </c>
+      <c r="E32" t="s">
+        <v>347</v>
+      </c>
+      <c r="F32" t="s">
+        <v>348</v>
+      </c>
       <c r="I32" s="2" t="s">
         <v>218</v>
       </c>
@@ -2929,7 +2876,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2940,81 +2887,135 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="I51" t="s">
+        <v>276</v>
+      </c>
+      <c r="J51" t="s">
+        <v>277</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>279</v>
+      </c>
+      <c r="J52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>282</v>
+      </c>
+      <c r="J54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>83</v>
       </c>
       <c r="B55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="I55" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B56" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -3024,8 +3025,14 @@
       <c r="C60" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>95</v>
       </c>
@@ -3035,8 +3042,14 @@
       <c r="C61" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>294</v>
+      </c>
+      <c r="J61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>97</v>
       </c>
@@ -3046,738 +3059,638 @@
       <c r="C62" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>297</v>
+      </c>
+      <c r="J63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>100</v>
       </c>
       <c r="B64" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
       <c r="B65" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>299</v>
+      </c>
+      <c r="J65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>103</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>301</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
       <c r="B67" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>304</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I68" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>106</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I69" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>6.5</v>
       </c>
       <c r="B70" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I70" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>108</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I71" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>110</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="I72" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B73" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I73" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="I74" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B75" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I75" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>116</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I76" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>316</v>
+      </c>
+      <c r="J77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>119</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I78" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>319</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>122</v>
       </c>
       <c r="B80" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>247</v>
       </c>
       <c r="B82" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>249</v>
       </c>
       <c r="B83" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>372</v>
+      </c>
+      <c r="J83" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>251</v>
       </c>
       <c r="B84" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="I84" t="s">
+        <v>370</v>
+      </c>
+      <c r="J84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B92" t="s">
+      <c r="I85" t="s">
+        <v>374</v>
+      </c>
+      <c r="J85" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="I86" t="s">
+        <v>376</v>
+      </c>
+      <c r="J86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" t="s">
+        <v>377</v>
+      </c>
+      <c r="J87" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88" t="s">
+        <v>378</v>
+      </c>
+      <c r="J88" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" t="s">
+        <v>258</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" t="s">
+        <v>260</v>
+      </c>
+      <c r="I90" t="s">
+        <v>381</v>
+      </c>
+      <c r="J90" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" t="s">
+        <v>267</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" t="s">
         <v>274</v>
       </c>
-      <c r="C92" t="s">
-        <v>296</v>
-      </c>
-      <c r="D92" t="s">
-        <v>318</v>
-      </c>
-      <c r="E92" t="s">
-        <v>340</v>
-      </c>
-      <c r="F92" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>324</v>
+      </c>
+      <c r="B101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>326</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>350</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1100</v>
+      </c>
+      <c r="B120" t="s">
         <v>361</v>
       </c>
-      <c r="G92" t="s">
-        <v>381</v>
-      </c>
-      <c r="H92" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" t="s">
-        <v>275</v>
-      </c>
-      <c r="C93" t="s">
-        <v>297</v>
-      </c>
-      <c r="D93" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" t="s">
-        <v>341</v>
-      </c>
-      <c r="F93" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>362</v>
       </c>
-      <c r="G93" t="s">
-        <v>382</v>
-      </c>
-      <c r="H93" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" t="s">
-        <v>298</v>
-      </c>
-      <c r="D94" t="s">
-        <v>320</v>
-      </c>
-      <c r="E94" t="s">
-        <v>342</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="B121" t="s">
         <v>363</v>
       </c>
-      <c r="G94" t="s">
-        <v>383</v>
-      </c>
-      <c r="H94" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" t="s">
-        <v>299</v>
-      </c>
-      <c r="D95" t="s">
-        <v>321</v>
-      </c>
-      <c r="E95" t="s">
-        <v>343</v>
-      </c>
-      <c r="F95" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G95" t="s">
-        <v>384</v>
-      </c>
-      <c r="H95" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" t="s">
-        <v>300</v>
-      </c>
-      <c r="D96" t="s">
-        <v>322</v>
-      </c>
-      <c r="E96" t="s">
-        <v>344</v>
-      </c>
-      <c r="F96" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>365</v>
       </c>
-      <c r="G96" t="s">
-        <v>385</v>
-      </c>
-      <c r="H96" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" t="s">
-        <v>279</v>
-      </c>
-      <c r="C97" t="s">
-        <v>301</v>
-      </c>
-      <c r="D97" t="s">
-        <v>323</v>
-      </c>
-      <c r="E97" t="s">
-        <v>345</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>366</v>
       </c>
-      <c r="G97" t="s">
-        <v>386</v>
-      </c>
-      <c r="H97" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>258</v>
-      </c>
-      <c r="B98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" t="s">
-        <v>302</v>
-      </c>
-      <c r="D98" t="s">
-        <v>324</v>
-      </c>
-      <c r="E98" t="s">
-        <v>276</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="B124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>367</v>
       </c>
-      <c r="G98" t="s">
-        <v>387</v>
-      </c>
-      <c r="H98" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>259</v>
-      </c>
-      <c r="B99" t="s">
-        <v>281</v>
-      </c>
-      <c r="C99" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" t="s">
-        <v>325</v>
-      </c>
-      <c r="E99" t="s">
-        <v>346</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="B125" t="s">
         <v>368</v>
-      </c>
-      <c r="G99" t="s">
-        <v>284</v>
-      </c>
-      <c r="H99" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>260</v>
-      </c>
-      <c r="B100" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" t="s">
-        <v>304</v>
-      </c>
-      <c r="D100" t="s">
-        <v>326</v>
-      </c>
-      <c r="E100" t="s">
-        <v>347</v>
-      </c>
-      <c r="F100" t="s">
-        <v>369</v>
-      </c>
-      <c r="G100" t="s">
-        <v>388</v>
-      </c>
-      <c r="H100" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" t="s">
-        <v>327</v>
-      </c>
-      <c r="E101" t="s">
-        <v>348</v>
-      </c>
-      <c r="F101" t="s">
-        <v>370</v>
-      </c>
-      <c r="G101" t="s">
-        <v>389</v>
-      </c>
-      <c r="H101" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>262</v>
-      </c>
-      <c r="B102" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" t="s">
-        <v>306</v>
-      </c>
-      <c r="D102" t="s">
-        <v>328</v>
-      </c>
-      <c r="E102" t="s">
-        <v>349</v>
-      </c>
-      <c r="F102" t="s">
-        <v>371</v>
-      </c>
-      <c r="G102" t="s">
-        <v>390</v>
-      </c>
-      <c r="H102" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>263</v>
-      </c>
-      <c r="B103" t="s">
-        <v>285</v>
-      </c>
-      <c r="C103" t="s">
-        <v>307</v>
-      </c>
-      <c r="D103" t="s">
-        <v>329</v>
-      </c>
-      <c r="E103" t="s">
-        <v>350</v>
-      </c>
-      <c r="F103" t="s">
-        <v>372</v>
-      </c>
-      <c r="G103" t="s">
-        <v>391</v>
-      </c>
-      <c r="H103" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>264</v>
-      </c>
-      <c r="B104" t="s">
-        <v>286</v>
-      </c>
-      <c r="C104" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" t="s">
-        <v>330</v>
-      </c>
-      <c r="E104" t="s">
-        <v>351</v>
-      </c>
-      <c r="F104" t="s">
-        <v>373</v>
-      </c>
-      <c r="G104" t="s">
-        <v>392</v>
-      </c>
-      <c r="H104" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>265</v>
-      </c>
-      <c r="B105" t="s">
-        <v>287</v>
-      </c>
-      <c r="C105" t="s">
-        <v>309</v>
-      </c>
-      <c r="D105" t="s">
-        <v>331</v>
-      </c>
-      <c r="E105" t="s">
-        <v>352</v>
-      </c>
-      <c r="F105" t="s">
-        <v>374</v>
-      </c>
-      <c r="G105" t="s">
-        <v>393</v>
-      </c>
-      <c r="H105" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>266</v>
-      </c>
-      <c r="B106" t="s">
-        <v>288</v>
-      </c>
-      <c r="C106" t="s">
-        <v>310</v>
-      </c>
-      <c r="D106" t="s">
-        <v>332</v>
-      </c>
-      <c r="E106" t="s">
-        <v>353</v>
-      </c>
-      <c r="F106" t="s">
-        <v>375</v>
-      </c>
-      <c r="G106" t="s">
-        <v>394</v>
-      </c>
-      <c r="H106" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>267</v>
-      </c>
-      <c r="B107" t="s">
-        <v>289</v>
-      </c>
-      <c r="C107" t="s">
-        <v>311</v>
-      </c>
-      <c r="D107" t="s">
-        <v>333</v>
-      </c>
-      <c r="E107" t="s">
-        <v>354</v>
-      </c>
-      <c r="F107" t="s">
-        <v>376</v>
-      </c>
-      <c r="G107" t="s">
-        <v>395</v>
-      </c>
-      <c r="H107" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>268</v>
-      </c>
-      <c r="B108" t="s">
-        <v>290</v>
-      </c>
-      <c r="C108" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" t="s">
-        <v>334</v>
-      </c>
-      <c r="E108" t="s">
-        <v>355</v>
-      </c>
-      <c r="F108" t="s">
-        <v>377</v>
-      </c>
-      <c r="G108" t="s">
-        <v>396</v>
-      </c>
-      <c r="H108" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109" t="s">
-        <v>291</v>
-      </c>
-      <c r="C109" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" t="s">
-        <v>335</v>
-      </c>
-      <c r="E109" t="s">
-        <v>356</v>
-      </c>
-      <c r="F109" t="s">
-        <v>378</v>
-      </c>
-      <c r="G109" t="s">
-        <v>397</v>
-      </c>
-      <c r="H109" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>270</v>
-      </c>
-      <c r="B110" t="s">
-        <v>292</v>
-      </c>
-      <c r="C110" t="s">
-        <v>314</v>
-      </c>
-      <c r="D110" t="s">
-        <v>336</v>
-      </c>
-      <c r="E110" t="s">
-        <v>357</v>
-      </c>
-      <c r="F110" t="s">
-        <v>313</v>
-      </c>
-      <c r="G110" t="s">
-        <v>398</v>
-      </c>
-      <c r="H110" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>271</v>
-      </c>
-      <c r="B111" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" t="s">
-        <v>315</v>
-      </c>
-      <c r="D111" t="s">
-        <v>337</v>
-      </c>
-      <c r="E111" t="s">
-        <v>358</v>
-      </c>
-      <c r="F111" t="s">
-        <v>379</v>
-      </c>
-      <c r="G111" t="s">
-        <v>399</v>
-      </c>
-      <c r="H111" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>272</v>
-      </c>
-      <c r="B112" t="s">
-        <v>294</v>
-      </c>
-      <c r="C112" t="s">
-        <v>316</v>
-      </c>
-      <c r="D112" t="s">
-        <v>338</v>
-      </c>
-      <c r="E112" t="s">
-        <v>359</v>
-      </c>
-      <c r="F112" t="s">
-        <v>380</v>
-      </c>
-      <c r="G112" t="s">
-        <v>262</v>
-      </c>
-      <c r="H112" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>273</v>
-      </c>
-      <c r="B113" t="s">
-        <v>295</v>
-      </c>
-      <c r="C113" t="s">
-        <v>317</v>
-      </c>
-      <c r="D113" t="s">
-        <v>339</v>
-      </c>
-      <c r="E113" t="s">
-        <v>360</v>
-      </c>
-      <c r="F113" t="s">
-        <v>288</v>
-      </c>
-      <c r="G113" t="s">
-        <v>400</v>
-      </c>
-      <c r="H113" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
